--- a/Classical Music/Classical Composers.xlsx
+++ b/Classical Music/Classical Composers.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\rang\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\rang\Classical Music\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA4E011-0117-47EA-BFB3-F83FDF913949}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2AF583-88BF-4426-9B39-E981B9DAE6AC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9465" activeTab="1" xr2:uid="{04F0F62F-97DD-4DA8-B4AD-B0B6FF39D984}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9465" activeTab="4" xr2:uid="{04F0F62F-97DD-4DA8-B4AD-B0B6FF39D984}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2 (2)" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet3!$A$1:$A$29</definedName>
     <definedName name="step" localSheetId="2">'Sheet2 (2)'!$A$1</definedName>
     <definedName name="step">Sheet2!$A$1</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="227">
   <si>
     <t>巴赫</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -633,6 +634,246 @@
     <t>威尔第</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>中世纪及文艺复兴</t>
+  </si>
+  <si>
+    <t>中世纪</t>
+  </si>
+  <si>
+    <t>赫德嘉·冯·宾根</t>
+  </si>
+  <si>
+    <t>文艺复兴</t>
+  </si>
+  <si>
+    <t>帕莱斯特里纳</t>
+  </si>
+  <si>
+    <t>巴洛克时期</t>
+  </si>
+  <si>
+    <t>早期</t>
+  </si>
+  <si>
+    <t>中期</t>
+  </si>
+  <si>
+    <t>晚期</t>
+  </si>
+  <si>
+    <t>古典主义时期</t>
+  </si>
+  <si>
+    <t>浪漫主义时期</t>
+  </si>
+  <si>
+    <t>前期</t>
+  </si>
+  <si>
+    <t>民族乐派</t>
+  </si>
+  <si>
+    <t>20世纪</t>
+  </si>
+  <si>
+    <t>印象乐派</t>
+  </si>
+  <si>
+    <t>简约主义</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>梅西安</t>
+  </si>
+  <si>
+    <t>许茨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帕赫贝尔</t>
+  </si>
+  <si>
+    <t>帕特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欣德米特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝尔格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维瓦尔第</t>
+  </si>
+  <si>
+    <t>D.斯卡拉蒂</t>
+  </si>
+  <si>
+    <t>泰勒曼</t>
+  </si>
+  <si>
+    <t>拉莫</t>
+  </si>
+  <si>
+    <t>海顿</t>
+  </si>
+  <si>
+    <t>萨马丁尼</t>
+  </si>
+  <si>
+    <t>C·P·E·巴赫</t>
+  </si>
+  <si>
+    <t>格鲁克</t>
+  </si>
+  <si>
+    <t>克雷门蒂</t>
+  </si>
+  <si>
+    <t>帕格尼尼</t>
+  </si>
+  <si>
+    <t>胡梅尔</t>
+  </si>
+  <si>
+    <t>凯鲁比尼</t>
+  </si>
+  <si>
+    <t>韦伯</t>
+  </si>
+  <si>
+    <t>贝利尼</t>
+  </si>
+  <si>
+    <t>多尼采蒂</t>
+  </si>
+  <si>
+    <t>F.门德尔松</t>
+  </si>
+  <si>
+    <t>雅克·奥芬巴赫</t>
+  </si>
+  <si>
+    <t>小约翰·施特劳斯</t>
+  </si>
+  <si>
+    <t>弗兰克</t>
+  </si>
+  <si>
+    <t>古诺</t>
+  </si>
+  <si>
+    <t>圣桑</t>
+  </si>
+  <si>
+    <t>布鲁赫</t>
+  </si>
+  <si>
+    <t>格林卡</t>
+  </si>
+  <si>
+    <t>强力集团</t>
+  </si>
+  <si>
+    <t>柴可夫斯基</t>
+  </si>
+  <si>
+    <t>西贝柳斯</t>
+  </si>
+  <si>
+    <t>阿尔贝尼兹</t>
+  </si>
+  <si>
+    <t>佛瑞</t>
+  </si>
+  <si>
+    <t>马勒</t>
+  </si>
+  <si>
+    <t>理查德·施特劳斯</t>
+  </si>
+  <si>
+    <t>拉赫玛尼诺夫</t>
+  </si>
+  <si>
+    <t>埃尔加</t>
+  </si>
+  <si>
+    <t>格拉祖诺夫</t>
+  </si>
+  <si>
+    <t>普契尼</t>
+  </si>
+  <si>
+    <t>德彪西</t>
+  </si>
+  <si>
+    <t>雅纳切克</t>
+  </si>
+  <si>
+    <t>巴托克</t>
+  </si>
+  <si>
+    <t>沃恩-威廉斯</t>
+  </si>
+  <si>
+    <t>肖斯塔科维奇</t>
+  </si>
+  <si>
+    <t>伯恩斯坦</t>
+  </si>
+  <si>
+    <t>蒙泰威尔第</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.斯卡拉蒂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>珀塞尔</t>
+  </si>
+  <si>
+    <t>吕利</t>
+  </si>
+  <si>
+    <t>勋伯格</t>
+  </si>
+  <si>
+    <t>韦伯恩</t>
+  </si>
+  <si>
+    <t>斯特拉文斯基</t>
+  </si>
+  <si>
+    <t>格拉斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚当斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二维也纳乐派</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新古典主义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新民族乐派</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后浪漫主义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -677,7 +918,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -741,13 +982,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -814,10 +1070,16 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2458,7 +2720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4049FF9E-F0EB-46EE-86F3-D2D9018A8462}">
   <dimension ref="A1:AC281"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -35785,11 +36047,11 @@
     </row>
     <row r="2" spans="1:29" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
-      <c r="B2" s="24">
+      <c r="B2" s="23">
         <f ca="1">INDIRECT(ADDRESS(COLUMN(),7,1,1,"Sheet1"))</f>
         <v>1685</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="23">
         <f ca="1">INDIRECT(ADDRESS(COLUMN(),7,1,1,"Sheet1"))</f>
         <v>1685</v>
       </c>
@@ -35822,8 +36084,8 @@
     </row>
     <row r="3" spans="1:29" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -35853,8 +36115,8 @@
     </row>
     <row r="4" spans="1:29" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -35884,8 +36146,8 @@
     </row>
     <row r="5" spans="1:29" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -35917,8 +36179,8 @@
       <c r="A6" s="7">
         <v>1680</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
@@ -36299,7 +36561,7 @@
       <c r="C16" s="8">
         <v>1</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="23">
         <f ca="1">INDIRECT(ADDRESS(COLUMN(),7,1,1,"Sheet1"))</f>
         <v>1756</v>
       </c>
@@ -36340,7 +36602,7 @@
       <c r="C17" s="8">
         <v>1</v>
       </c>
-      <c r="D17" s="24"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
@@ -36378,7 +36640,7 @@
       <c r="C18" s="8">
         <v>1</v>
       </c>
-      <c r="D18" s="24"/>
+      <c r="D18" s="23"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
@@ -36416,8 +36678,8 @@
       <c r="C19" s="8">
         <v>1</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24">
+      <c r="D19" s="23"/>
+      <c r="E19" s="23">
         <f ca="1">INDIRECT(ADDRESS(COLUMN(),7,1,1,"Sheet1"))</f>
         <v>1770</v>
       </c>
@@ -36457,8 +36719,8 @@
       <c r="C20" s="8">
         <v>1</v>
       </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
@@ -36489,7 +36751,7 @@
         <f t="shared" si="1"/>
         <v>1755</v>
       </c>
-      <c r="B21" s="23">
+      <c r="B21" s="24">
         <f ca="1">INDIRECT(ADDRESS(COLUMN(),8,1,1,"Sheet1"))</f>
         <v>1750</v>
       </c>
@@ -36499,7 +36761,7 @@
       <c r="D21" s="8">
         <v>1</v>
       </c>
-      <c r="E21" s="24"/>
+      <c r="E21" s="23"/>
       <c r="F21" s="10"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
@@ -36530,15 +36792,15 @@
         <f t="shared" si="1"/>
         <v>1760</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23">
+      <c r="B22" s="24"/>
+      <c r="C22" s="24">
         <f ca="1">INDIRECT(ADDRESS(COLUMN(),8,1,1,"Sheet1"))</f>
         <v>1759</v>
       </c>
       <c r="D22" s="8">
         <v>1</v>
       </c>
-      <c r="E22" s="24"/>
+      <c r="E22" s="23"/>
       <c r="F22" s="10"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -36569,13 +36831,13 @@
         <f t="shared" si="1"/>
         <v>1765</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
       <c r="D23" s="8">
         <v>1</v>
       </c>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24">
+      <c r="E23" s="23"/>
+      <c r="F23" s="23">
         <f ca="1">INDIRECT(ADDRESS(COLUMN(),7,1,1,"Sheet1"))</f>
         <v>1792</v>
       </c>
@@ -36608,16 +36870,16 @@
         <f t="shared" si="1"/>
         <v>1770</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
       <c r="D24" s="8">
         <v>1</v>
       </c>
       <c r="E24" s="8">
         <v>1</v>
       </c>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24">
+      <c r="F24" s="23"/>
+      <c r="G24" s="23">
         <f ca="1">INDIRECT(ADDRESS(COLUMN(),7,1,1,"Sheet1"))</f>
         <v>1797</v>
       </c>
@@ -36649,17 +36911,17 @@
         <f t="shared" si="1"/>
         <v>1775</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
       <c r="D25" s="8">
         <v>1</v>
       </c>
       <c r="E25" s="8">
         <v>1</v>
       </c>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24">
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23">
         <f ca="1">INDIRECT(ADDRESS(COLUMN(),7,1,1,"Sheet1"))</f>
         <v>1803</v>
       </c>
@@ -36691,17 +36953,17 @@
         <v>1780</v>
       </c>
       <c r="B26" s="11"/>
-      <c r="C26" s="23"/>
+      <c r="C26" s="24"/>
       <c r="D26" s="8">
         <v>1</v>
       </c>
       <c r="E26" s="8">
         <v>1</v>
       </c>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24">
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23">
         <f ca="1">INDIRECT(ADDRESS(COLUMN(),7,1,1,"Sheet1"))</f>
         <v>1809</v>
       </c>
@@ -36739,27 +37001,27 @@
       <c r="E27" s="8">
         <v>1</v>
       </c>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24">
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23">
         <f ca="1">INDIRECT(ADDRESS(COLUMN(),7,1,1,"Sheet1"))</f>
         <v>1810</v>
       </c>
-      <c r="K27" s="24">
+      <c r="K27" s="23">
         <f ca="1">INDIRECT(ADDRESS(COLUMN(),7,1,1,"Sheet1"))</f>
         <v>1810</v>
       </c>
-      <c r="L27" s="24">
+      <c r="L27" s="23">
         <f ca="1">INDIRECT(ADDRESS(COLUMN(),7,1,1,"Sheet1"))</f>
         <v>1811</v>
       </c>
-      <c r="M27" s="24">
+      <c r="M27" s="23">
         <f ca="1">INDIRECT(ADDRESS(COLUMN(),7,1,1,"Sheet1"))</f>
         <v>1813</v>
       </c>
-      <c r="N27" s="24">
+      <c r="N27" s="23">
         <f ca="1">INDIRECT(ADDRESS(COLUMN(),7,1,1,"Sheet1"))</f>
         <v>1813</v>
       </c>
@@ -36795,14 +37057,14 @@
       <c r="F28" s="8">
         <v>1</v>
       </c>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
       <c r="Q28" s="10"/>
@@ -36826,7 +37088,7 @@
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="12"/>
-      <c r="D29" s="23">
+      <c r="D29" s="24">
         <f ca="1">INDIRECT(ADDRESS(COLUMN(),8,1,1,"Sheet1"))</f>
         <v>1791</v>
       </c>
@@ -36839,18 +37101,18 @@
       <c r="G29" s="8">
         <v>1</v>
       </c>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="24">
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23">
         <f ca="1">INDIRECT(ADDRESS(COLUMN(),7,1,1,"Sheet1"))</f>
         <v>1824</v>
       </c>
-      <c r="P29" s="24">
+      <c r="P29" s="23">
         <f ca="1">INDIRECT(ADDRESS(COLUMN(),7,1,1,"Sheet1"))</f>
         <v>1824</v>
       </c>
@@ -36875,7 +37137,7 @@
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="23"/>
+      <c r="D30" s="24"/>
       <c r="E30" s="8">
         <v>1</v>
       </c>
@@ -36888,15 +37150,15 @@
       <c r="H30" s="8">
         <v>1</v>
       </c>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="24">
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23">
         <f ca="1">INDIRECT(ADDRESS(COLUMN(),7,1,1,"Sheet1"))</f>
         <v>1825</v>
       </c>
@@ -36920,7 +37182,7 @@
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
-      <c r="D31" s="23"/>
+      <c r="D31" s="24"/>
       <c r="E31" s="8">
         <v>1</v>
       </c>
@@ -36936,19 +37198,19 @@
       <c r="I31" s="8">
         <v>1</v>
       </c>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="24">
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23">
         <f ca="1">INDIRECT(ADDRESS(COLUMN(),7,1,1,"Sheet1"))</f>
         <v>1833</v>
       </c>
-      <c r="S31" s="24">
+      <c r="S31" s="23">
         <f ca="1">INDIRECT(ADDRESS(COLUMN(),7,1,1,"Sheet1"))</f>
         <v>1833</v>
       </c>
@@ -36970,7 +37232,7 @@
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
-      <c r="D32" s="23"/>
+      <c r="D32" s="24"/>
       <c r="E32" s="8">
         <v>1</v>
       </c>
@@ -37001,16 +37263,16 @@
       <c r="N32" s="8">
         <v>1</v>
       </c>
-      <c r="O32" s="24"/>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="24"/>
-      <c r="R32" s="24"/>
-      <c r="S32" s="24"/>
-      <c r="T32" s="24">
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="23">
         <f ca="1">INDIRECT(ADDRESS(COLUMN(),7,1,1,"Sheet1"))</f>
         <v>1835</v>
       </c>
-      <c r="U32" s="24">
+      <c r="U32" s="23">
         <f ca="1">INDIRECT(ADDRESS(COLUMN(),7,1,1,"Sheet1"))</f>
         <v>1838</v>
       </c>
@@ -37030,7 +37292,7 @@
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
-      <c r="D33" s="23"/>
+      <c r="D33" s="24"/>
       <c r="E33" s="8">
         <v>1</v>
       </c>
@@ -37061,18 +37323,18 @@
       <c r="N33" s="8">
         <v>1</v>
       </c>
-      <c r="O33" s="24"/>
-      <c r="P33" s="24"/>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="24"/>
-      <c r="S33" s="24"/>
-      <c r="T33" s="24"/>
-      <c r="U33" s="24"/>
-      <c r="V33" s="24">
+      <c r="O33" s="23"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="23"/>
+      <c r="S33" s="23"/>
+      <c r="T33" s="23"/>
+      <c r="U33" s="23"/>
+      <c r="V33" s="23">
         <f ca="1">INDIRECT(ADDRESS(COLUMN(),7,1,1,"Sheet1"))</f>
         <v>1841</v>
       </c>
-      <c r="W33" s="24">
+      <c r="W33" s="23">
         <f ca="1">INDIRECT(ADDRESS(COLUMN(),7,1,1,"Sheet1"))</f>
         <v>1844</v>
       </c>
@@ -37127,13 +37389,13 @@
       <c r="P34" s="8">
         <v>1</v>
       </c>
-      <c r="Q34" s="24"/>
-      <c r="R34" s="24"/>
-      <c r="S34" s="24"/>
-      <c r="T34" s="24"/>
-      <c r="U34" s="24"/>
-      <c r="V34" s="24"/>
-      <c r="W34" s="24"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="23"/>
+      <c r="V34" s="23"/>
+      <c r="W34" s="23"/>
       <c r="X34" s="10"/>
       <c r="Y34" s="8"/>
       <c r="Z34" s="8"/>
@@ -37188,12 +37450,12 @@
       <c r="Q35" s="8">
         <v>1</v>
       </c>
-      <c r="R35" s="24"/>
-      <c r="S35" s="24"/>
-      <c r="T35" s="24"/>
-      <c r="U35" s="24"/>
-      <c r="V35" s="24"/>
-      <c r="W35" s="24"/>
+      <c r="R35" s="23"/>
+      <c r="S35" s="23"/>
+      <c r="T35" s="23"/>
+      <c r="U35" s="23"/>
+      <c r="V35" s="23"/>
+      <c r="W35" s="23"/>
       <c r="X35" s="10"/>
       <c r="Y35" s="10"/>
       <c r="Z35" s="10"/>
@@ -37209,14 +37471,14 @@
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="23">
+      <c r="E36" s="24">
         <f ca="1">INDIRECT(ADDRESS(COLUMN(),8,1,1,"Sheet1"))</f>
         <v>1827</v>
       </c>
       <c r="F36" s="8">
         <v>1</v>
       </c>
-      <c r="G36" s="23">
+      <c r="G36" s="24">
         <f ca="1">INDIRECT(ADDRESS(COLUMN(),8,1,1,"Sheet1"))</f>
         <v>1828</v>
       </c>
@@ -37256,10 +37518,10 @@
       <c r="S36" s="8">
         <v>1</v>
       </c>
-      <c r="T36" s="24"/>
-      <c r="U36" s="24"/>
-      <c r="V36" s="24"/>
-      <c r="W36" s="24"/>
+      <c r="T36" s="23"/>
+      <c r="U36" s="23"/>
+      <c r="V36" s="23"/>
+      <c r="W36" s="23"/>
       <c r="X36" s="10"/>
       <c r="Y36" s="10"/>
       <c r="Z36" s="10"/>
@@ -37275,11 +37537,11 @@
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
-      <c r="E37" s="23"/>
+      <c r="E37" s="24"/>
       <c r="F37" s="8">
         <v>1</v>
       </c>
-      <c r="G37" s="23"/>
+      <c r="G37" s="24"/>
       <c r="H37" s="8">
         <v>1</v>
       </c>
@@ -37322,17 +37584,17 @@
       <c r="U37" s="8">
         <v>1</v>
       </c>
-      <c r="V37" s="24"/>
-      <c r="W37" s="24"/>
-      <c r="X37" s="24">
+      <c r="V37" s="23"/>
+      <c r="W37" s="23"/>
+      <c r="X37" s="23">
         <f ca="1">INDIRECT(ADDRESS(COLUMN(),7,1,1,"Sheet1"))</f>
         <v>1860</v>
       </c>
-      <c r="Y37" s="24">
+      <c r="Y37" s="23">
         <f ca="1">INDIRECT(ADDRESS(COLUMN(),7,1,1,"Sheet1"))</f>
         <v>1862</v>
       </c>
-      <c r="Z37" s="24">
+      <c r="Z37" s="23">
         <f ca="1">INDIRECT(ADDRESS(COLUMN(),7,1,1,"Sheet1"))</f>
         <v>1864</v>
       </c>
@@ -37348,11 +37610,11 @@
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
-      <c r="E38" s="23"/>
+      <c r="E38" s="24"/>
       <c r="F38" s="8">
         <v>1</v>
       </c>
-      <c r="G38" s="23"/>
+      <c r="G38" s="24"/>
       <c r="H38" s="8">
         <v>1</v>
       </c>
@@ -37401,9 +37663,9 @@
       <c r="W38" s="8">
         <v>1</v>
       </c>
-      <c r="X38" s="24"/>
-      <c r="Y38" s="24"/>
-      <c r="Z38" s="24"/>
+      <c r="X38" s="23"/>
+      <c r="Y38" s="23"/>
+      <c r="Z38" s="23"/>
       <c r="AA38" s="10"/>
       <c r="AB38" s="8"/>
       <c r="AC38" s="8"/>
@@ -37416,11 +37678,11 @@
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
-      <c r="E39" s="23"/>
+      <c r="E39" s="24"/>
       <c r="F39" s="8">
         <v>1</v>
       </c>
-      <c r="G39" s="23"/>
+      <c r="G39" s="24"/>
       <c r="H39" s="8">
         <v>1</v>
       </c>
@@ -37469,9 +37731,9 @@
       <c r="W39" s="8">
         <v>1</v>
       </c>
-      <c r="X39" s="24"/>
-      <c r="Y39" s="24"/>
-      <c r="Z39" s="24"/>
+      <c r="X39" s="23"/>
+      <c r="Y39" s="23"/>
+      <c r="Z39" s="23"/>
       <c r="AA39" s="10"/>
       <c r="AB39" s="8"/>
       <c r="AC39" s="8"/>
@@ -37484,19 +37746,19 @@
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
-      <c r="E40" s="23"/>
+      <c r="E40" s="24"/>
       <c r="F40" s="8">
         <v>1</v>
       </c>
-      <c r="G40" s="23"/>
+      <c r="G40" s="24"/>
       <c r="H40" s="8">
         <v>1</v>
       </c>
-      <c r="I40" s="23">
+      <c r="I40" s="24">
         <f ca="1">INDIRECT(ADDRESS(COLUMN(),8,1,1,"Sheet1"))</f>
         <v>1847</v>
       </c>
-      <c r="J40" s="23">
+      <c r="J40" s="24">
         <f ca="1">INDIRECT(ADDRESS(COLUMN(),8,1,1,"Sheet1"))</f>
         <v>1849</v>
       </c>
@@ -37539,10 +37801,10 @@
       <c r="W40" s="8">
         <v>1</v>
       </c>
-      <c r="X40" s="24"/>
-      <c r="Y40" s="24"/>
-      <c r="Z40" s="24"/>
-      <c r="AA40" s="24">
+      <c r="X40" s="23"/>
+      <c r="Y40" s="23"/>
+      <c r="Z40" s="23"/>
+      <c r="AA40" s="23">
         <f ca="1">INDIRECT(ADDRESS(COLUMN(),7,1,1,"Sheet1"))</f>
         <v>1875</v>
       </c>
@@ -37565,8 +37827,8 @@
       <c r="H41" s="8">
         <v>1</v>
       </c>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
       <c r="K41" s="8">
         <v>1</v>
       </c>
@@ -37606,10 +37868,10 @@
       <c r="W41" s="8">
         <v>1</v>
       </c>
-      <c r="X41" s="24"/>
-      <c r="Y41" s="24"/>
-      <c r="Z41" s="24"/>
-      <c r="AA41" s="24"/>
+      <c r="X41" s="23"/>
+      <c r="Y41" s="23"/>
+      <c r="Z41" s="23"/>
+      <c r="AA41" s="23"/>
       <c r="AB41" s="10"/>
       <c r="AC41" s="8"/>
     </row>
@@ -37629,9 +37891,9 @@
       <c r="H42" s="8">
         <v>1</v>
       </c>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23">
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24">
         <f ca="1">INDIRECT(ADDRESS(COLUMN(),8,1,1,"Sheet1"))</f>
         <v>1856</v>
       </c>
@@ -37680,7 +37942,7 @@
       <c r="Z42" s="8">
         <v>1</v>
       </c>
-      <c r="AA42" s="24"/>
+      <c r="AA42" s="23"/>
       <c r="AB42" s="10"/>
       <c r="AC42" s="10"/>
     </row>
@@ -37700,9 +37962,9 @@
       <c r="H43" s="8">
         <v>1</v>
       </c>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
       <c r="L43" s="8">
         <v>1</v>
       </c>
@@ -37748,8 +38010,8 @@
       <c r="Z43" s="8">
         <v>1</v>
       </c>
-      <c r="AA43" s="24"/>
-      <c r="AB43" s="24">
+      <c r="AA43" s="23"/>
+      <c r="AB43" s="23">
         <f ca="1">INDIRECT(ADDRESS(COLUMN(),7,1,1,"Sheet1"))</f>
         <v>1891</v>
       </c>
@@ -37764,18 +38026,18 @@
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
-      <c r="F44" s="23">
+      <c r="F44" s="24">
         <f ca="1">INDIRECT(ADDRESS(COLUMN(),8,1,1,"Sheet1"))</f>
         <v>1868</v>
       </c>
       <c r="G44" s="8"/>
-      <c r="H44" s="23">
+      <c r="H44" s="24">
         <f ca="1">INDIRECT(ADDRESS(COLUMN(),8,1,1,"Sheet1"))</f>
         <v>1869</v>
       </c>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
-      <c r="K44" s="23"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
       <c r="L44" s="8">
         <v>1</v>
       </c>
@@ -37821,9 +38083,9 @@
       <c r="Z44" s="8">
         <v>1</v>
       </c>
-      <c r="AA44" s="24"/>
-      <c r="AB44" s="24"/>
-      <c r="AC44" s="24">
+      <c r="AA44" s="23"/>
+      <c r="AB44" s="23"/>
+      <c r="AC44" s="23">
         <f ca="1">INDIRECT(ADDRESS(COLUMN(),7,1,1,"Sheet1"))</f>
         <v>1898</v>
       </c>
@@ -37837,12 +38099,12 @@
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
-      <c r="F45" s="23"/>
+      <c r="F45" s="24"/>
       <c r="G45" s="8"/>
-      <c r="H45" s="23"/>
+      <c r="H45" s="24"/>
       <c r="I45" s="11"/>
       <c r="J45" s="11"/>
-      <c r="K45" s="23"/>
+      <c r="K45" s="24"/>
       <c r="L45" s="8">
         <v>1</v>
       </c>
@@ -37891,8 +38153,8 @@
       <c r="AA45" s="8">
         <v>1</v>
       </c>
-      <c r="AB45" s="24"/>
-      <c r="AC45" s="24"/>
+      <c r="AB45" s="23"/>
+      <c r="AC45" s="23"/>
     </row>
     <row r="46" spans="1:29" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
@@ -37903,12 +38165,12 @@
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
-      <c r="F46" s="23"/>
+      <c r="F46" s="24"/>
       <c r="G46" s="8"/>
-      <c r="H46" s="23"/>
+      <c r="H46" s="24"/>
       <c r="I46" s="11"/>
       <c r="J46" s="11"/>
-      <c r="K46" s="23"/>
+      <c r="K46" s="24"/>
       <c r="L46" s="8">
         <v>1</v>
       </c>
@@ -37936,7 +38198,7 @@
       <c r="T46" s="8">
         <v>1</v>
       </c>
-      <c r="U46" s="23">
+      <c r="U46" s="24">
         <f ca="1">INDIRECT(ADDRESS(COLUMN(),8,1,1,"Sheet1"))</f>
         <v>1875</v>
       </c>
@@ -37958,8 +38220,8 @@
       <c r="AA46" s="8">
         <v>1</v>
       </c>
-      <c r="AB46" s="24"/>
-      <c r="AC46" s="24"/>
+      <c r="AB46" s="23"/>
+      <c r="AC46" s="23"/>
     </row>
     <row r="47" spans="1:29" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
@@ -37970,23 +38232,23 @@
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
-      <c r="F47" s="23"/>
+      <c r="F47" s="24"/>
       <c r="G47" s="8"/>
-      <c r="H47" s="23"/>
+      <c r="H47" s="24"/>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="11"/>
       <c r="L47" s="8">
         <v>1</v>
       </c>
-      <c r="M47" s="23">
+      <c r="M47" s="24">
         <f ca="1">INDIRECT(ADDRESS(COLUMN(),8,1,1,"Sheet1"))</f>
         <v>1883</v>
       </c>
       <c r="N47" s="8">
         <v>1</v>
       </c>
-      <c r="O47" s="23">
+      <c r="O47" s="24">
         <f ca="1">INDIRECT(ADDRESS(COLUMN(),8,1,1,"Sheet1"))</f>
         <v>1884</v>
       </c>
@@ -38005,7 +38267,7 @@
       <c r="T47" s="8">
         <v>1</v>
       </c>
-      <c r="U47" s="23"/>
+      <c r="U47" s="24"/>
       <c r="V47" s="8">
         <v>1</v>
       </c>
@@ -38024,8 +38286,8 @@
       <c r="AA47" s="8">
         <v>1</v>
       </c>
-      <c r="AB47" s="24"/>
-      <c r="AC47" s="24"/>
+      <c r="AB47" s="23"/>
+      <c r="AC47" s="23"/>
     </row>
     <row r="48" spans="1:29" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
@@ -38036,28 +38298,28 @@
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
-      <c r="F48" s="23"/>
+      <c r="F48" s="24"/>
       <c r="G48" s="8"/>
-      <c r="H48" s="23"/>
+      <c r="H48" s="24"/>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="11"/>
-      <c r="L48" s="23">
+      <c r="L48" s="24">
         <f ca="1">INDIRECT(ADDRESS(COLUMN(),8,1,1,"Sheet1"))</f>
         <v>1886</v>
       </c>
-      <c r="M48" s="23"/>
+      <c r="M48" s="24"/>
       <c r="N48" s="8">
         <v>1</v>
       </c>
-      <c r="O48" s="23"/>
+      <c r="O48" s="24"/>
       <c r="P48" s="8">
         <v>1</v>
       </c>
       <c r="Q48" s="8">
         <v>1</v>
       </c>
-      <c r="R48" s="23">
+      <c r="R48" s="24">
         <f ca="1">INDIRECT(ADDRESS(COLUMN(),8,1,1,"Sheet1"))</f>
         <v>1887</v>
       </c>
@@ -38067,7 +38329,7 @@
       <c r="T48" s="8">
         <v>1</v>
       </c>
-      <c r="U48" s="23"/>
+      <c r="U48" s="24"/>
       <c r="V48" s="8">
         <v>1</v>
       </c>
@@ -38089,7 +38351,7 @@
       <c r="AB48" s="8">
         <v>1</v>
       </c>
-      <c r="AC48" s="24"/>
+      <c r="AC48" s="23"/>
     </row>
     <row r="49" spans="1:29" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
@@ -38106,26 +38368,26 @@
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
-      <c r="L49" s="23"/>
-      <c r="M49" s="23"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="24"/>
       <c r="N49" s="8">
         <v>1</v>
       </c>
-      <c r="O49" s="23"/>
+      <c r="O49" s="24"/>
       <c r="P49" s="8">
         <v>1</v>
       </c>
       <c r="Q49" s="8">
         <v>1</v>
       </c>
-      <c r="R49" s="23"/>
+      <c r="R49" s="24"/>
       <c r="S49" s="8">
         <v>1</v>
       </c>
       <c r="T49" s="8">
         <v>1</v>
       </c>
-      <c r="U49" s="23"/>
+      <c r="U49" s="24"/>
       <c r="V49" s="8">
         <v>1</v>
       </c>
@@ -38166,29 +38428,29 @@
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
-      <c r="L50" s="23"/>
-      <c r="M50" s="23"/>
+      <c r="L50" s="24"/>
+      <c r="M50" s="24"/>
       <c r="N50" s="8">
         <v>1</v>
       </c>
-      <c r="O50" s="23"/>
-      <c r="P50" s="23">
+      <c r="O50" s="24"/>
+      <c r="P50" s="24">
         <f ca="1">INDIRECT(ADDRESS(COLUMN(),8,1,1,"Sheet1"))</f>
         <v>1896</v>
       </c>
-      <c r="Q50" s="23">
+      <c r="Q50" s="24">
         <f ca="1">INDIRECT(ADDRESS(COLUMN(),8,1,1,"Sheet1"))</f>
         <v>1899</v>
       </c>
-      <c r="R50" s="23"/>
-      <c r="S50" s="23">
+      <c r="R50" s="24"/>
+      <c r="S50" s="24">
         <f ca="1">INDIRECT(ADDRESS(COLUMN(),8,1,1,"Sheet1"))</f>
         <v>1897</v>
       </c>
       <c r="T50" s="8">
         <v>1</v>
       </c>
-      <c r="U50" s="23"/>
+      <c r="U50" s="24"/>
       <c r="V50" s="8">
         <v>1</v>
       </c>
@@ -38229,29 +38491,29 @@
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
-      <c r="L51" s="23"/>
-      <c r="M51" s="23"/>
-      <c r="N51" s="23">
+      <c r="L51" s="24"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="24">
         <f ca="1">INDIRECT(ADDRESS(COLUMN(),8,1,1,"Sheet1"))</f>
         <v>1901</v>
       </c>
-      <c r="O51" s="23"/>
-      <c r="P51" s="23"/>
-      <c r="Q51" s="23"/>
-      <c r="R51" s="23"/>
-      <c r="S51" s="23"/>
+      <c r="O51" s="24"/>
+      <c r="P51" s="24"/>
+      <c r="Q51" s="24"/>
+      <c r="R51" s="24"/>
+      <c r="S51" s="24"/>
       <c r="T51" s="8">
         <v>1</v>
       </c>
       <c r="U51" s="11"/>
-      <c r="V51" s="23">
+      <c r="V51" s="24">
         <f ca="1">INDIRECT(ADDRESS(COLUMN(),8,1,1,"Sheet1"))</f>
         <v>1904</v>
       </c>
       <c r="W51" s="8">
         <v>1</v>
       </c>
-      <c r="X51" s="23">
+      <c r="X51" s="24">
         <f ca="1">INDIRECT(ADDRESS(COLUMN(),8,1,1,"Sheet1"))</f>
         <v>1903</v>
       </c>
@@ -38286,24 +38548,24 @@
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
-      <c r="L52" s="23"/>
+      <c r="L52" s="24"/>
       <c r="M52" s="11"/>
-      <c r="N52" s="23"/>
+      <c r="N52" s="24"/>
       <c r="O52" s="11"/>
-      <c r="P52" s="23"/>
-      <c r="Q52" s="23"/>
-      <c r="R52" s="23"/>
-      <c r="S52" s="23"/>
+      <c r="P52" s="24"/>
+      <c r="Q52" s="24"/>
+      <c r="R52" s="24"/>
+      <c r="S52" s="24"/>
       <c r="T52" s="8">
         <v>1</v>
       </c>
       <c r="U52" s="11"/>
-      <c r="V52" s="23"/>
-      <c r="W52" s="23">
+      <c r="V52" s="24"/>
+      <c r="W52" s="24">
         <f ca="1">INDIRECT(ADDRESS(COLUMN(),8,1,1,"Sheet1"))</f>
         <v>1908</v>
       </c>
-      <c r="X52" s="23"/>
+      <c r="X52" s="24"/>
       <c r="Y52" s="8">
         <v>1</v>
       </c>
@@ -38337,19 +38599,19 @@
       <c r="K53" s="8"/>
       <c r="L53" s="11"/>
       <c r="M53" s="11"/>
-      <c r="N53" s="23"/>
+      <c r="N53" s="24"/>
       <c r="O53" s="11"/>
-      <c r="P53" s="23"/>
-      <c r="Q53" s="23"/>
+      <c r="P53" s="24"/>
+      <c r="Q53" s="24"/>
       <c r="R53" s="11"/>
-      <c r="S53" s="23"/>
+      <c r="S53" s="24"/>
       <c r="T53" s="8">
         <v>1</v>
       </c>
       <c r="U53" s="8"/>
-      <c r="V53" s="23"/>
-      <c r="W53" s="23"/>
-      <c r="X53" s="23"/>
+      <c r="V53" s="24"/>
+      <c r="W53" s="24"/>
+      <c r="X53" s="24"/>
       <c r="Y53" s="8">
         <v>1</v>
       </c>
@@ -38383,19 +38645,19 @@
       <c r="K54" s="8"/>
       <c r="L54" s="11"/>
       <c r="M54" s="8"/>
-      <c r="N54" s="23"/>
+      <c r="N54" s="24"/>
       <c r="O54" s="8"/>
-      <c r="P54" s="23"/>
-      <c r="Q54" s="23"/>
+      <c r="P54" s="24"/>
+      <c r="Q54" s="24"/>
       <c r="R54" s="11"/>
-      <c r="S54" s="23"/>
+      <c r="S54" s="24"/>
       <c r="T54" s="8">
         <v>1</v>
       </c>
       <c r="U54" s="8"/>
-      <c r="V54" s="23"/>
-      <c r="W54" s="23"/>
-      <c r="X54" s="23"/>
+      <c r="V54" s="24"/>
+      <c r="W54" s="24"/>
+      <c r="X54" s="24"/>
       <c r="Y54" s="8">
         <v>1</v>
       </c>
@@ -38429,20 +38691,20 @@
       <c r="K55" s="8"/>
       <c r="L55" s="8"/>
       <c r="M55" s="8"/>
-      <c r="N55" s="23"/>
+      <c r="N55" s="24"/>
       <c r="O55" s="8"/>
       <c r="P55" s="11"/>
       <c r="Q55" s="11"/>
       <c r="R55" s="8"/>
       <c r="S55" s="11"/>
-      <c r="T55" s="23">
+      <c r="T55" s="24">
         <f ca="1">INDIRECT(ADDRESS(COLUMN(),8,1,1,"Sheet1"))</f>
         <v>1921</v>
       </c>
       <c r="U55" s="8"/>
-      <c r="V55" s="23"/>
-      <c r="W55" s="23"/>
-      <c r="X55" s="23"/>
+      <c r="V55" s="24"/>
+      <c r="W55" s="24"/>
+      <c r="X55" s="24"/>
       <c r="Y55" s="8">
         <v>1</v>
       </c>
@@ -38482,10 +38744,10 @@
       <c r="Q56" s="11"/>
       <c r="R56" s="8"/>
       <c r="S56" s="11"/>
-      <c r="T56" s="23"/>
+      <c r="T56" s="24"/>
       <c r="U56" s="8"/>
       <c r="V56" s="11"/>
-      <c r="W56" s="23"/>
+      <c r="W56" s="24"/>
       <c r="X56" s="11"/>
       <c r="Y56" s="8">
         <v>1</v>
@@ -38526,12 +38788,12 @@
       <c r="Q57" s="8"/>
       <c r="R57" s="8"/>
       <c r="S57" s="8"/>
-      <c r="T57" s="23"/>
+      <c r="T57" s="24"/>
       <c r="U57" s="8"/>
       <c r="V57" s="11"/>
       <c r="W57" s="11"/>
       <c r="X57" s="11"/>
-      <c r="Y57" s="23">
+      <c r="Y57" s="24">
         <f ca="1">INDIRECT(ADDRESS(COLUMN(),8,1,1,"Sheet1"))</f>
         <v>1934</v>
       </c>
@@ -38571,23 +38833,23 @@
       <c r="Q58" s="8"/>
       <c r="R58" s="8"/>
       <c r="S58" s="8"/>
-      <c r="T58" s="23"/>
+      <c r="T58" s="24"/>
       <c r="U58" s="8"/>
       <c r="V58" s="8"/>
       <c r="W58" s="11"/>
       <c r="X58" s="8"/>
-      <c r="Y58" s="23"/>
+      <c r="Y58" s="24"/>
       <c r="Z58" s="8">
         <v>1</v>
       </c>
-      <c r="AA58" s="23">
+      <c r="AA58" s="24">
         <f ca="1">INDIRECT(ADDRESS(COLUMN(),8,1,1,"Sheet1"))</f>
         <v>1937</v>
       </c>
       <c r="AB58" s="8">
         <v>1</v>
       </c>
-      <c r="AC58" s="23">
+      <c r="AC58" s="24">
         <f ca="1">INDIRECT(ADDRESS(COLUMN(),8,1,1,"Sheet1"))</f>
         <v>1937</v>
       </c>
@@ -38615,20 +38877,20 @@
       <c r="Q59" s="8"/>
       <c r="R59" s="8"/>
       <c r="S59" s="8"/>
-      <c r="T59" s="23"/>
+      <c r="T59" s="24"/>
       <c r="U59" s="8"/>
       <c r="V59" s="8"/>
       <c r="W59" s="8"/>
       <c r="X59" s="8"/>
-      <c r="Y59" s="23"/>
+      <c r="Y59" s="24"/>
       <c r="Z59" s="8">
         <v>1</v>
       </c>
-      <c r="AA59" s="23"/>
+      <c r="AA59" s="24"/>
       <c r="AB59" s="8">
         <v>1</v>
       </c>
-      <c r="AC59" s="23"/>
+      <c r="AC59" s="24"/>
     </row>
     <row r="60" spans="1:29" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="7">
@@ -38658,16 +38920,16 @@
       <c r="V60" s="8"/>
       <c r="W60" s="8"/>
       <c r="X60" s="8"/>
-      <c r="Y60" s="23"/>
-      <c r="Z60" s="23">
+      <c r="Y60" s="24"/>
+      <c r="Z60" s="24">
         <f ca="1">INDIRECT(ADDRESS(COLUMN(),8,1,1,"Sheet1"))</f>
         <v>1949</v>
       </c>
-      <c r="AA60" s="23"/>
+      <c r="AA60" s="24"/>
       <c r="AB60" s="8">
         <v>1</v>
       </c>
-      <c r="AC60" s="23"/>
+      <c r="AC60" s="24"/>
     </row>
     <row r="61" spans="1:29" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="7"/>
@@ -38694,14 +38956,14 @@
       <c r="V61" s="7"/>
       <c r="W61" s="7"/>
       <c r="X61" s="7"/>
-      <c r="Y61" s="23"/>
-      <c r="Z61" s="23"/>
-      <c r="AA61" s="23"/>
-      <c r="AB61" s="23">
+      <c r="Y61" s="24"/>
+      <c r="Z61" s="24"/>
+      <c r="AA61" s="24"/>
+      <c r="AB61" s="24">
         <f ca="1">INDIRECT(ADDRESS(COLUMN(),8,1,1,"Sheet1"))</f>
         <v>1953</v>
       </c>
-      <c r="AC61" s="23"/>
+      <c r="AC61" s="24"/>
     </row>
     <row r="62" spans="1:29" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="7"/>
@@ -38729,10 +38991,10 @@
       <c r="W62" s="7"/>
       <c r="X62" s="7"/>
       <c r="Y62" s="11"/>
-      <c r="Z62" s="23"/>
-      <c r="AA62" s="23"/>
-      <c r="AB62" s="23"/>
-      <c r="AC62" s="23"/>
+      <c r="Z62" s="24"/>
+      <c r="AA62" s="24"/>
+      <c r="AB62" s="24"/>
+      <c r="AC62" s="24"/>
     </row>
     <row r="63" spans="1:29" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="7"/>
@@ -38760,9 +39022,9 @@
       <c r="W63" s="7"/>
       <c r="X63" s="7"/>
       <c r="Y63" s="11"/>
-      <c r="Z63" s="23"/>
+      <c r="Z63" s="24"/>
       <c r="AA63" s="11"/>
-      <c r="AB63" s="23"/>
+      <c r="AB63" s="24"/>
       <c r="AC63" s="11"/>
     </row>
     <row r="64" spans="1:29" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -38791,9 +39053,9 @@
       <c r="W64" s="7"/>
       <c r="X64" s="7"/>
       <c r="Y64" s="7"/>
-      <c r="Z64" s="23"/>
+      <c r="Z64" s="24"/>
       <c r="AA64" s="11"/>
-      <c r="AB64" s="23"/>
+      <c r="AB64" s="24"/>
       <c r="AC64" s="11"/>
     </row>
     <row r="65" spans="1:29" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -38824,7 +39086,7 @@
       <c r="Y65" s="7"/>
       <c r="Z65" s="11"/>
       <c r="AA65" s="7"/>
-      <c r="AB65" s="23"/>
+      <c r="AB65" s="24"/>
       <c r="AC65" s="7"/>
     </row>
     <row r="66" spans="1:29" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -38863,24 +39125,28 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="E19:E23"/>
-    <mergeCell ref="I26:I30"/>
-    <mergeCell ref="H25:H29"/>
-    <mergeCell ref="G24:G28"/>
-    <mergeCell ref="F23:F27"/>
-    <mergeCell ref="S50:S54"/>
-    <mergeCell ref="R48:R52"/>
-    <mergeCell ref="K42:K46"/>
-    <mergeCell ref="J40:J44"/>
-    <mergeCell ref="F44:F48"/>
-    <mergeCell ref="I40:I44"/>
-    <mergeCell ref="H44:H48"/>
-    <mergeCell ref="G36:G40"/>
-    <mergeCell ref="X51:X55"/>
-    <mergeCell ref="W52:W56"/>
-    <mergeCell ref="V51:V55"/>
-    <mergeCell ref="U46:U50"/>
-    <mergeCell ref="T55:T59"/>
+    <mergeCell ref="E36:E40"/>
+    <mergeCell ref="Q50:Q54"/>
+    <mergeCell ref="P50:P54"/>
+    <mergeCell ref="O47:O51"/>
+    <mergeCell ref="N51:N55"/>
+    <mergeCell ref="M47:M51"/>
+    <mergeCell ref="L48:L52"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="AC58:AC62"/>
+    <mergeCell ref="AB61:AB65"/>
+    <mergeCell ref="AA58:AA62"/>
+    <mergeCell ref="Z60:Z64"/>
+    <mergeCell ref="Y57:Y61"/>
+    <mergeCell ref="Q30:Q34"/>
+    <mergeCell ref="P29:P33"/>
+    <mergeCell ref="O29:O33"/>
+    <mergeCell ref="N27:N31"/>
+    <mergeCell ref="M27:M31"/>
     <mergeCell ref="L27:L31"/>
     <mergeCell ref="D16:D20"/>
     <mergeCell ref="AC44:AC48"/>
@@ -38897,28 +39163,24 @@
     <mergeCell ref="R31:R35"/>
     <mergeCell ref="K27:K31"/>
     <mergeCell ref="J27:J31"/>
-    <mergeCell ref="Q30:Q34"/>
-    <mergeCell ref="P29:P33"/>
-    <mergeCell ref="O29:O33"/>
-    <mergeCell ref="N27:N31"/>
-    <mergeCell ref="M27:M31"/>
-    <mergeCell ref="AC58:AC62"/>
-    <mergeCell ref="AB61:AB65"/>
-    <mergeCell ref="AA58:AA62"/>
-    <mergeCell ref="Z60:Z64"/>
-    <mergeCell ref="Y57:Y61"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="E36:E40"/>
-    <mergeCell ref="Q50:Q54"/>
-    <mergeCell ref="P50:P54"/>
-    <mergeCell ref="O47:O51"/>
-    <mergeCell ref="N51:N55"/>
-    <mergeCell ref="M47:M51"/>
-    <mergeCell ref="L48:L52"/>
+    <mergeCell ref="X51:X55"/>
+    <mergeCell ref="W52:W56"/>
+    <mergeCell ref="V51:V55"/>
+    <mergeCell ref="U46:U50"/>
+    <mergeCell ref="T55:T59"/>
+    <mergeCell ref="S50:S54"/>
+    <mergeCell ref="R48:R52"/>
+    <mergeCell ref="K42:K46"/>
+    <mergeCell ref="J40:J44"/>
+    <mergeCell ref="F44:F48"/>
+    <mergeCell ref="I40:I44"/>
+    <mergeCell ref="H44:H48"/>
+    <mergeCell ref="G36:G40"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="I26:I30"/>
+    <mergeCell ref="H25:H29"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="F23:F27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B7:AC15 B58:S60 B16:C20 E16:AC18 B21:D21 D24:E27 G22:AC23 H24:AC24 B28:B29 I25:AC25 P27:AC27 Q28:AC28 B30:C34 R29:AC29 B35:Q35 R30:S30 U30:AC31 V32:AC32 B36:D41 Y33:AC35 AA36:AC38 B43:H43 AB39:AC40 AC41:AC42 D22:D23 E29:G29 D28:F28 E34:P34 E32:N33 E31:I31 E30:H30 F36:F41 B44:E48 G44:G48 H36:S36 H37:U37 H38:W39 B42:F42 I47:J48 B49:G50 I49:K50 H40:H42 K40:W41 L42:Z44 L45:AA45 B51:K54 M54 L47 N47:N50 B55:M57 O57:S57 P47:T47 P48:Q49 O54:O56 R55:R56 S48:T49 T53:U54 U59:X60 T50:T52 V49:AC50 V48:AB48 L46:T46 V46:AA47 U55:U57 W51 U58:V58 X58 Y51:AC56 Z57:AC57 Z58:Z59 AB58:AB60 F19:AC21 J26:AC26 D6:AC6">
@@ -71871,4 +72133,527 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7E1DC3B-3CC3-47B9-9E9F-30C6C1954CFD}">
+  <dimension ref="A1:M19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="10.75" customWidth="1"/>
+    <col min="3" max="3" width="11.75" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="8.75" customWidth="1"/>
+    <col min="7" max="7" width="11.75" customWidth="1"/>
+    <col min="8" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+    </row>
+    <row r="2" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="25"/>
+      <c r="B4" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+    </row>
+    <row r="5" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="25"/>
+      <c r="B5" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="25"/>
+      <c r="B7" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="25"/>
+      <c r="B8" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="K9" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="25"/>
+      <c r="B10" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+    </row>
+    <row r="11" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="25"/>
+      <c r="B11" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="K11" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="L11" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="M11" s="26" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="25"/>
+      <c r="B12" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+    </row>
+    <row r="13" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="25"/>
+      <c r="B13" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+    </row>
+    <row r="15" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="25"/>
+      <c r="B15" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+    </row>
+    <row r="16" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="25"/>
+      <c r="B16" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+    </row>
+    <row r="17" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="25"/>
+      <c r="B17" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="25"/>
+      <c r="B18" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="25"/>
+      <c r="B19" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A14:A19"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>